--- a/util/report_vellore.xlsx
+++ b/util/report_vellore.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="216">
   <si>
     <t xml:space="preserve">CODE</t>
   </si>
@@ -647,6 +647,27 @@
   </si>
   <si>
     <t xml:space="preserve">MB218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic German</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TT201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADAIKALAM ARULANANDAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRP522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARATI KUMARI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SJT205</t>
   </si>
 </sst>
 </file>
@@ -805,13 +826,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1144"/>
+  <dimension ref="A1:H1147"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A133" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="C145" activeCellId="0" sqref="C145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4103,32 +4124,77 @@
         <v>207</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="5"/>
-      <c r="B144" s="5"/>
-      <c r="C144" s="5"/>
-      <c r="D144" s="6"/>
-      <c r="E144" s="5"/>
-      <c r="F144" s="5"/>
-      <c r="G144" s="5"/>
+    <row r="144" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="5" t="str">
+        <f aca="false">"GER1001"</f>
+        <v>GER1001</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D144" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="5"/>
-      <c r="B145" s="5"/>
-      <c r="C145" s="5"/>
-      <c r="D145" s="6"/>
-      <c r="E145" s="5"/>
-      <c r="F145" s="5"/>
-      <c r="G145" s="5"/>
+      <c r="A145" s="5" t="str">
+        <f aca="false">"GER1001"</f>
+        <v>GER1001</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D145" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="5"/>
-      <c r="B146" s="5"/>
-      <c r="C146" s="5"/>
-      <c r="D146" s="6"/>
-      <c r="E146" s="5"/>
-      <c r="F146" s="5"/>
-      <c r="G146" s="5"/>
+      <c r="A146" s="5" t="str">
+        <f aca="false">"GER1001"</f>
+        <v>GER1001</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D146" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="5"/>
